--- a/Kanji_v2/KanjiN5/Batch_6/Lesson6/kanjiv2.xlsx
+++ b/Kanji_v2/KanjiN5/Batch_6/Lesson6/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\KanjiN5\Batch_6\Lesson6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26844A8F-7CA5-42A7-BE00-E1C2AB4E4896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43987110-30EB-4EA5-90AC-940E49C94B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>japanese</t>
   </si>
@@ -132,12 +132,6 @@
     <t>書</t>
   </si>
   <si>
-    <t>NHỊ</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
     <t>月</t>
   </si>
   <si>
@@ -442,6 +436,21 @@
   </si>
   <si>
     <t>合成</t>
+  </si>
+  <si>
+    <t>Thư</t>
+  </si>
+  <si>
+    <t>viết</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>hán</t>
+  </si>
+  <si>
+    <t>hán tự</t>
   </si>
 </sst>
 </file>
@@ -786,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +823,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -831,384 +840,384 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
         <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
         <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
         <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
         <v>134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1308,6 +1317,17 @@
       </c>
       <c r="D46" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Kanji_v2/KanjiN5/Batch_6/Lesson6/kanjiv2.xlsx
+++ b/Kanji_v2/KanjiN5/Batch_6/Lesson6/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\KanjiN5\Batch_6\Lesson6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43987110-30EB-4EA5-90AC-940E49C94B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC1661-8E8F-41EB-909B-C6C931DB3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>cảng</t>
   </si>
   <si>
-    <t>bến c ảng</t>
-  </si>
-  <si>
     <t>曜</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>hán tự</t>
+  </si>
+  <si>
+    <t>bến cảng</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,401 +823,401 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
         <v>102</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
         <v>111</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1316,18 +1316,18 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
